--- a/data_processed/20250814/BTCUSDVOLSURFACE_REGULARIZED_20250814.xlsx
+++ b/data_processed/20250814/BTCUSDVOLSURFACE_REGULARIZED_20250814.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -18519,7 +18519,7 @@
       </c>
       <c r="G710" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -18631,7 +18631,7 @@
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -34456,7 +34456,7 @@
       </c>
       <c r="G1343" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -36579,7 +36579,7 @@
       </c>
       <c r="G1422" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41405,7 +41405,7 @@
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -43695,7 +43695,7 @@
       </c>
       <c r="G1694" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -44569,7 +44569,7 @@
       </c>
       <c r="G1728" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250814/BTCUSDVOLSURFACE_REGULARIZED_20250814.xlsx
+++ b/data_processed/20250814/BTCUSDVOLSURFACE_REGULARIZED_20250814.xlsx
@@ -6302,7 +6302,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6331,7 +6331,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6679,7 +6679,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12930,7 +12930,7 @@
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12959,7 +12959,7 @@
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -13046,7 +13046,7 @@
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18519,7 +18519,7 @@
       </c>
       <c r="G710" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -18548,7 +18548,7 @@
       </c>
       <c r="G711" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18631,7 +18631,7 @@
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -18660,7 +18660,7 @@
       </c>
       <c r="G715" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -29799,7 +29799,7 @@
       </c>
       <c r="G1158" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35084,7 +35084,7 @@
       </c>
       <c r="G1367" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35113,7 +35113,7 @@
       </c>
       <c r="G1368" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35142,7 +35142,7 @@
       </c>
       <c r="G1369" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35316,7 +35316,7 @@
       </c>
       <c r="G1375" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35345,7 +35345,7 @@
       </c>
       <c r="G1376" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35374,7 +35374,7 @@
       </c>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35403,7 +35403,7 @@
       </c>
       <c r="G1378" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35540,7 +35540,7 @@
       </c>
       <c r="G1383" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36127,7 +36127,7 @@
       </c>
       <c r="G1406" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36185,7 +36185,7 @@
       </c>
       <c r="G1408" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36243,7 +36243,7 @@
       </c>
       <c r="G1410" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36272,7 +36272,7 @@
       </c>
       <c r="G1411" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36550,7 +36550,7 @@
       </c>
       <c r="G1421" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37174,7 +37174,7 @@
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37228,7 +37228,7 @@
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37286,7 +37286,7 @@
       </c>
       <c r="G1449" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37315,7 +37315,7 @@
       </c>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37344,7 +37344,7 @@
       </c>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37373,7 +37373,7 @@
       </c>
       <c r="G1452" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37539,7 +37539,7 @@
       </c>
       <c r="G1458" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37568,7 +37568,7 @@
       </c>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -41376,7 +41376,7 @@
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41434,7 +41434,7 @@
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -41575,7 +41575,7 @@
       </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41604,7 +41604,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -41633,7 +41633,7 @@
       </c>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42444,7 +42444,7 @@
       </c>
       <c r="G1647" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42473,7 +42473,7 @@
       </c>
       <c r="G1648" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42502,7 +42502,7 @@
       </c>
       <c r="G1649" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42705,7 +42705,7 @@
       </c>
       <c r="G1656" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43591,7 +43591,7 @@
       </c>
       <c r="G1690" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44569,7 +44569,7 @@
       </c>
       <c r="G1728" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
